--- a/SPPSApi/Doc/Template/FTMS内示总结.xlsx
+++ b/SPPSApi/Doc/Template/FTMS内示总结.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01935DE-AF1C-479F-9820-C5EE06B0B23D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">总结!$B$1:$N$62</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
   <si>
     <t>本月内示</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -179,18 +173,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2021-03-08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>数据区间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020年04月～2021年06月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对象月</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -203,18 +189,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>04月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>05月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>06月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -231,14 +205,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对象月SOQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -268,397 +234,13 @@
   </si>
   <si>
     <t>内内士月年计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8159</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>362019</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>232459</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>232</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8387</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>411</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>318</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5082</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16471</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>35800</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>17618</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12491</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>331455</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>221877</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>227</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4037</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>423</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5174</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16242</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>435</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>36226</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20244</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12736</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>317052</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>208445</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>303</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8418</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5051</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>409</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4274</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13681</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>364</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30853</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16938</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11842</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>318891</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>205797</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6903</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3754</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>451</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4335</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14982</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>470</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>28308</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>17251</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10437</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>306033</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>185365</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>128</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1893</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1028</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>427</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4149</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13834</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>328</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>27595</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16062</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10175</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>324021</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>203730</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>309</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6984</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3904</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>504</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2684</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15228</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>268</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>27855</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16772</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8191</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>266519</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>172530</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>249</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6530</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3852</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>373</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2060</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12077</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>195</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>23733</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14243</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7606</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>260066</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>169590</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1577</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>882</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2262</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>410</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12542</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>230</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>24987</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15497</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -1988,9 +1570,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2000,6 +1607,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,168 +1617,140 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="130">
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a__Sheet1" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - アクセント 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - アクセント 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - アクセント 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - アクセント 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - アクセント 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - アクセント 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="3232" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - アクセント 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="40% - アクセント 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40% - アクセント 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="40% - アクセント 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40% - アクセント 6" xfId="25" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="60% - アクセント 1" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="60% - アクセント 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="60% - アクセント 3" xfId="34" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="60% - アクセント 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="60% - アクセント 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="60% - アクセント 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="CriteriaPrint_AreaPrint_TitlesRecorderData_FormAuto_ActivateAuto_DeactivateSheet_Title_FilterDatabase81WK? SettingsLoad_Chart_WndAFEMonospaceGridlinesプロダクト ID:ユーザー名不明Uninstalled Version*.*メモリ不足のため Microsoft Office Excel を起動できません。他のアプリケーションを終了してから、もう一度や" xfId="44" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="アクセント 1" xfId="45" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="アクセント 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="アクセント 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="アクセント 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="アクセント 5" xfId="49" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="アクセント 6" xfId="50" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="タイトル" xfId="51" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="チェック セル" xfId="52" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="どちらでもない" xfId="53" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="メモ" xfId="54" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="リンク セル" xfId="55" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2" xfId="5"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a__Sheet1" xfId="6"/>
+    <cellStyle name="20% - アクセント 1" xfId="7"/>
+    <cellStyle name="20% - アクセント 2" xfId="8"/>
+    <cellStyle name="20% - アクセント 3" xfId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="10"/>
+    <cellStyle name="20% - アクセント 5" xfId="11"/>
+    <cellStyle name="20% - アクセント 6" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="13"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="14"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="16"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="17"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="18"/>
+    <cellStyle name="3232" xfId="19"/>
+    <cellStyle name="40% - アクセント 1" xfId="20"/>
+    <cellStyle name="40% - アクセント 2" xfId="21"/>
+    <cellStyle name="40% - アクセント 3" xfId="22"/>
+    <cellStyle name="40% - アクセント 4" xfId="23"/>
+    <cellStyle name="40% - アクセント 5" xfId="24"/>
+    <cellStyle name="40% - アクセント 6" xfId="25"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="26"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="27"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="28"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="29"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="30"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="31"/>
+    <cellStyle name="60% - アクセント 1" xfId="32"/>
+    <cellStyle name="60% - アクセント 2" xfId="33"/>
+    <cellStyle name="60% - アクセント 3" xfId="34"/>
+    <cellStyle name="60% - アクセント 4" xfId="35"/>
+    <cellStyle name="60% - アクセント 5" xfId="36"/>
+    <cellStyle name="60% - アクセント 6" xfId="37"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="38"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="40"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="41"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="42"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="43"/>
+    <cellStyle name="CriteriaPrint_AreaPrint_TitlesRecorderData_FormAuto_ActivateAuto_DeactivateSheet_Title_FilterDatabase81WK? SettingsLoad_Chart_WndAFEMonospaceGridlinesプロダクト ID:ユーザー名不明Uninstalled Version*.*メモリ不足のため Microsoft Office Excel を起動できません。他のアプリケーションを終了してから、もう一度や" xfId="44"/>
+    <cellStyle name="アクセント 1" xfId="45"/>
+    <cellStyle name="アクセント 2" xfId="46"/>
+    <cellStyle name="アクセント 3" xfId="47"/>
+    <cellStyle name="アクセント 4" xfId="48"/>
+    <cellStyle name="アクセント 5" xfId="49"/>
+    <cellStyle name="アクセント 6" xfId="50"/>
+    <cellStyle name="タイトル" xfId="51"/>
+    <cellStyle name="チェック セル" xfId="52"/>
+    <cellStyle name="どちらでもない" xfId="53"/>
+    <cellStyle name="メモ" xfId="54"/>
+    <cellStyle name="リンク セル" xfId="55"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="百分比 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="百分比 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="百分比 4" xfId="58" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="百分比 5" xfId="59" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="标题 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="标题 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="标题 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="标题 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="标题 5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="標準_1106補給生産会議資料(一汽系)" xfId="65" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="差 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="差_Sheet1" xfId="67" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="差_受注状況" xfId="68" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="百分比 2" xfId="56"/>
+    <cellStyle name="百分比 3" xfId="57"/>
+    <cellStyle name="百分比 4" xfId="58"/>
+    <cellStyle name="百分比 5" xfId="59"/>
+    <cellStyle name="标题 1 2" xfId="60"/>
+    <cellStyle name="标题 2 2" xfId="61"/>
+    <cellStyle name="标题 3 2" xfId="62"/>
+    <cellStyle name="标题 4 2" xfId="63"/>
+    <cellStyle name="标题 5" xfId="64"/>
+    <cellStyle name="標準_1106補給生産会議資料(一汽系)" xfId="65"/>
+    <cellStyle name="差 2" xfId="66"/>
+    <cellStyle name="差_Sheet1" xfId="67"/>
+    <cellStyle name="差_受注状況" xfId="68"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 11" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 12" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="常规 13" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="常规 14" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="常规 15" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="常规 16" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="常规 17" xfId="2" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="常规 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="常规 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="常规 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="常规 3 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="常规 3 3 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="常规 3 3_Book1" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="常规 3 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="常规 3_1月订货泰达说明资料" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="常规 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 5" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 6" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="常规 7" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 8" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="常规 9" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="出力" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="悪い" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="好 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="好_Sheet1" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="好_受注状況" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="桁区切り_BUMPER　8月度発注検討資料" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="汇总 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="货币 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="集計" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="计算 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="計算" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="检查单元格 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="見出し 1" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="見出し 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="見出し 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="見出し 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="解释性文本 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="警告文" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="警告文本 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="链接单元格 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="良い" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="千位分隔 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="千位分隔 2 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="千位分隔[0] 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="千位分隔[0] 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="千位分隔[0] 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="入力" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="适中 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="输出 2" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="输入 2" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="説明文" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="样式 1" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="注释 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="常规 10" xfId="69"/>
+    <cellStyle name="常规 11" xfId="70"/>
+    <cellStyle name="常规 12" xfId="71"/>
+    <cellStyle name="常规 13" xfId="72"/>
+    <cellStyle name="常规 14" xfId="73"/>
+    <cellStyle name="常规 15" xfId="74"/>
+    <cellStyle name="常规 16" xfId="75"/>
+    <cellStyle name="常规 17" xfId="2"/>
+    <cellStyle name="常规 2" xfId="76"/>
+    <cellStyle name="常规 3" xfId="77"/>
+    <cellStyle name="常规 3 2" xfId="78"/>
+    <cellStyle name="常规 3 3" xfId="79"/>
+    <cellStyle name="常规 3 3 2" xfId="80"/>
+    <cellStyle name="常规 3 3 3" xfId="81"/>
+    <cellStyle name="常规 3 3_Book1" xfId="82"/>
+    <cellStyle name="常规 3 4" xfId="83"/>
+    <cellStyle name="常规 3_1月订货泰达说明资料" xfId="84"/>
+    <cellStyle name="常规 4" xfId="85"/>
+    <cellStyle name="常规 5" xfId="86"/>
+    <cellStyle name="常规 6" xfId="87"/>
+    <cellStyle name="常规 7" xfId="88"/>
+    <cellStyle name="常规 8" xfId="89"/>
+    <cellStyle name="常规 9" xfId="90"/>
+    <cellStyle name="出力" xfId="91"/>
+    <cellStyle name="悪い" xfId="92"/>
+    <cellStyle name="好 2" xfId="93"/>
+    <cellStyle name="好_Sheet1" xfId="94"/>
+    <cellStyle name="好_受注状況" xfId="95"/>
+    <cellStyle name="桁区切り_BUMPER　8月度発注検討資料" xfId="96"/>
+    <cellStyle name="汇总 2" xfId="97"/>
+    <cellStyle name="货币 2" xfId="98"/>
+    <cellStyle name="集計" xfId="99"/>
+    <cellStyle name="计算 2" xfId="100"/>
+    <cellStyle name="計算" xfId="101"/>
+    <cellStyle name="检查单元格 2" xfId="102"/>
+    <cellStyle name="見出し 1" xfId="103"/>
+    <cellStyle name="見出し 2" xfId="104"/>
+    <cellStyle name="見出し 3" xfId="105"/>
+    <cellStyle name="見出し 4" xfId="106"/>
+    <cellStyle name="解释性文本 2" xfId="107"/>
+    <cellStyle name="警告文" xfId="108"/>
+    <cellStyle name="警告文本 2" xfId="109"/>
+    <cellStyle name="链接单元格 2" xfId="110"/>
+    <cellStyle name="良い" xfId="111"/>
+    <cellStyle name="千位分隔 2" xfId="112"/>
+    <cellStyle name="千位分隔 2 2" xfId="113"/>
+    <cellStyle name="千位分隔[0] 2" xfId="114"/>
+    <cellStyle name="千位分隔[0] 3" xfId="115"/>
+    <cellStyle name="千位分隔[0] 4" xfId="116"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="117"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="118"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="119"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="120"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="121"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="122"/>
+    <cellStyle name="入力" xfId="123"/>
+    <cellStyle name="适中 2" xfId="124"/>
+    <cellStyle name="输出 2" xfId="125"/>
+    <cellStyle name="输入 2" xfId="126"/>
+    <cellStyle name="説明文" xfId="127"/>
+    <cellStyle name="样式 1" xfId="128"/>
+    <cellStyle name="注释 2" xfId="129"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2226,7 +1808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2259,26 +1841,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2311,23 +1876,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2503,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2538,30 +2086,32 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="77" t="str">
-        <f>"补给管理课"&amp;data!A2</f>
-        <v>补给管理课2021-03-08</v>
-      </c>
+      <c r="M1" s="87" t="str">
+        <f>"补给资材企管课
+"&amp;data!A2</f>
+        <v xml:space="preserve">补给资材企管课
+</v>
+      </c>
+      <c r="N1" s="87"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:15" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="77" t="str">
         <f>"FTMS内示总结（"&amp;data!B2&amp;"）"</f>
-        <v>FTMS内示总结（2020年04月～2021年06月）</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+        <v>FTMS内示总结（）</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="2:15" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -2604,9 +2154,9 @@
       <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="81" t="str">
+      <c r="E5" s="72">
         <f>data!F2</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
@@ -2624,9 +2174,9 @@
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="2:15" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="78" t="str">
+      <c r="B6" s="78">
         <f>data!C2</f>
-        <v>04月</v>
+        <v>0</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>4</v>
@@ -2663,545 +2213,545 @@
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B7" s="86"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="82" t="str">
+      <c r="D7" s="73">
         <f>data!J2</f>
-        <v>8159</v>
-      </c>
-      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="e">
         <f>D7/$E$5</f>
-        <v>354.73913043478262</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="str">
+      <c r="H7" s="25">
         <f>data!K2</f>
-        <v>12491</v>
-      </c>
-      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26" t="e">
         <f>H7/$E$5</f>
-        <v>543.08695652173913</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J7" s="26">
         <f t="shared" ref="J7:J18" si="0">D7-H7</f>
-        <v>-4332</v>
-      </c>
-      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27" t="e">
         <f>J7/H7</f>
-        <v>-0.34680970298615005</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="83" t="str">
+      <c r="M7" s="74">
         <f>data!O2</f>
-        <v>10175</v>
-      </c>
-      <c r="N7" s="28">
+        <v>0</v>
+      </c>
+      <c r="N7" s="28" t="e">
         <f>(D7/M7)-1</f>
-        <v>-0.1981326781326781</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O7" s="30"/>
     </row>
     <row r="8" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B8" s="86"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="82" t="str">
+      <c r="D8" s="73">
         <f>data!J3</f>
-        <v>362019</v>
-      </c>
-      <c r="E8" s="22">
-        <f t="shared" ref="E7:E18" si="1">D8/$E$5</f>
-        <v>15739.95652173913</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="22" t="e">
+        <f t="shared" ref="E8:E18" si="1">D8/$E$5</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="str">
+      <c r="H8" s="25">
         <f>data!K3</f>
-        <v>331455</v>
-      </c>
-      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26" t="e">
         <f t="shared" ref="I8:I18" si="2">H8/$E$5</f>
-        <v>14411.08695652174</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J8" s="26">
         <f t="shared" si="0"/>
-        <v>30564</v>
-      </c>
-      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27" t="e">
         <f t="shared" ref="K8:K18" si="3">J8/H8</f>
-        <v>9.2211612436077298E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L8" s="31"/>
-      <c r="M8" s="83" t="str">
+      <c r="M8" s="74">
         <f>data!O3</f>
-        <v>324021</v>
-      </c>
-      <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="N8" s="28" t="e">
         <f t="shared" ref="N8:N18" si="4">(D8/M8)-1</f>
-        <v>0.11727017693297648</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O8" s="30"/>
     </row>
     <row r="9" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B9" s="86"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="82" t="str">
+      <c r="D9" s="73">
         <f>data!J4</f>
-        <v>232459</v>
-      </c>
-      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>10106.91304347826</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="str">
+      <c r="H9" s="25">
         <f>data!K4</f>
-        <v>221877</v>
-      </c>
-      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>9646.826086956522</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J9" s="26">
         <f t="shared" si="0"/>
-        <v>10582</v>
-      </c>
-      <c r="K9" s="27">
+        <v>0</v>
+      </c>
+      <c r="K9" s="27" t="e">
         <f t="shared" si="3"/>
-        <v>4.7693091217205927E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="83" t="str">
+      <c r="M9" s="74">
         <f>data!O4</f>
-        <v>203730</v>
-      </c>
-      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>0.14101506896382476</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O9" s="30"/>
     </row>
     <row r="10" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B10" s="86"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="82" t="str">
+      <c r="D10" s="73">
         <f>data!J5</f>
-        <v>232</v>
-      </c>
-      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>10.086956521739131</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="str">
+      <c r="H10" s="25">
         <f>data!K5</f>
-        <v>227</v>
-      </c>
-      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>9.8695652173913047</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J10" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K10" s="27">
+        <v>0</v>
+      </c>
+      <c r="K10" s="27" t="e">
         <f t="shared" si="3"/>
-        <v>2.2026431718061675E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="83" t="str">
+      <c r="M10" s="74">
         <f>data!O5</f>
-        <v>309</v>
-      </c>
-      <c r="N10" s="28">
+        <v>0</v>
+      </c>
+      <c r="N10" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>-0.2491909385113269</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O10" s="30"/>
     </row>
     <row r="11" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B11" s="86"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="82" t="str">
+      <c r="D11" s="73">
         <f>data!J6</f>
-        <v>8387</v>
-      </c>
-      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22" t="e">
         <f t="shared" ref="E11" si="5">D11/$E$5</f>
-        <v>364.6521739130435</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="25" t="str">
+      <c r="H11" s="25">
         <f>data!K6</f>
-        <v>7120</v>
-      </c>
-      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26" t="e">
         <f t="shared" ref="I11" si="6">H11/$E$5</f>
-        <v>309.56521739130437</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J11" s="26">
         <f t="shared" ref="J11" si="7">D11-H11</f>
-        <v>1267</v>
-      </c>
-      <c r="K11" s="27">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27" t="e">
         <f t="shared" ref="K11" si="8">J11/H11</f>
-        <v>0.17794943820224718</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="83" t="str">
+      <c r="M11" s="74">
         <f>data!O6</f>
-        <v>6984</v>
-      </c>
-      <c r="N11" s="28">
+        <v>0</v>
+      </c>
+      <c r="N11" s="28" t="e">
         <f t="shared" ref="N11" si="9">(D11/M11)-1</f>
-        <v>0.20088774341351656</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O11" s="30"/>
     </row>
     <row r="12" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B12" s="86"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="82" t="str">
+      <c r="D12" s="73">
         <f>data!J7</f>
-        <v>4006</v>
-      </c>
-      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>174.17391304347825</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="30"/>
-      <c r="H12" s="25" t="str">
+      <c r="H12" s="25">
         <f>data!K7</f>
-        <v>4037</v>
-      </c>
-      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>175.52173913043478</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J12" s="32">
         <f t="shared" si="0"/>
-        <v>-31</v>
-      </c>
-      <c r="K12" s="33">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33" t="e">
         <f t="shared" si="3"/>
-        <v>-7.6789695318305673E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="83" t="str">
+      <c r="M12" s="74">
         <f>data!O7</f>
-        <v>3904</v>
-      </c>
-      <c r="N12" s="34">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34" t="e">
         <f t="shared" si="4"/>
-        <v>2.6127049180327822E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B13" s="86"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="82" t="str">
+      <c r="D13" s="73">
         <f>data!J8</f>
-        <v>411</v>
-      </c>
-      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>17.869565217391305</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="30"/>
-      <c r="H13" s="25" t="str">
+      <c r="H13" s="25">
         <f>data!K8</f>
-        <v>423</v>
-      </c>
-      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>18.391304347826086</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-      <c r="K13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27" t="e">
         <f t="shared" si="3"/>
-        <v>-2.8368794326241134E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="83" t="str">
+      <c r="M13" s="74">
         <f>data!O8</f>
-        <v>504</v>
-      </c>
-      <c r="N13" s="28">
+        <v>0</v>
+      </c>
+      <c r="N13" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>-0.18452380952380953</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B14" s="86"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="82" t="str">
+      <c r="D14" s="73">
         <f>data!J9</f>
-        <v>5082</v>
-      </c>
-      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>220.95652173913044</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="30"/>
-      <c r="H14" s="25" t="str">
+      <c r="H14" s="25">
         <f>data!K9</f>
-        <v>5174</v>
-      </c>
-      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>224.95652173913044</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J14" s="26">
         <f t="shared" si="0"/>
-        <v>-92</v>
-      </c>
-      <c r="K14" s="27">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27" t="e">
         <f t="shared" si="3"/>
-        <v>-1.778121376111326E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="83" t="str">
+      <c r="M14" s="74">
         <f>data!O9</f>
-        <v>2684</v>
-      </c>
-      <c r="N14" s="28">
+        <v>0</v>
+      </c>
+      <c r="N14" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>0.89344262295081966</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O14" s="30"/>
     </row>
     <row r="15" spans="2:15" s="15" customFormat="1" ht="15.75">
-      <c r="B15" s="86"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="82" t="str">
+      <c r="D15" s="73">
         <f>data!J10</f>
-        <v>16471</v>
-      </c>
-      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>716.13043478260875</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="19"/>
-      <c r="H15" s="25" t="str">
+      <c r="H15" s="25">
         <f>data!K10</f>
-        <v>16242</v>
-      </c>
-      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>706.17391304347825</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J15" s="26">
         <f t="shared" si="0"/>
-        <v>229</v>
-      </c>
-      <c r="K15" s="27">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27" t="e">
         <f t="shared" si="3"/>
-        <v>1.4099248860977713E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L15" s="19"/>
-      <c r="M15" s="83" t="str">
+      <c r="M15" s="74">
         <f>data!O10</f>
-        <v>15228</v>
-      </c>
-      <c r="N15" s="28">
+        <v>0</v>
+      </c>
+      <c r="N15" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>8.1625952193328022E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B16" s="86"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="82" t="str">
+      <c r="D16" s="73">
         <f>data!J11</f>
-        <v>318</v>
-      </c>
-      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>13.826086956521738</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="24"/>
-      <c r="H16" s="25" t="str">
+      <c r="H16" s="25">
         <f>data!K11</f>
-        <v>435</v>
-      </c>
-      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>18.913043478260871</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J16" s="26">
         <f t="shared" si="0"/>
-        <v>-117</v>
-      </c>
-      <c r="K16" s="27">
+        <v>0</v>
+      </c>
+      <c r="K16" s="27" t="e">
         <f t="shared" si="3"/>
-        <v>-0.26896551724137929</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L16" s="31"/>
-      <c r="M16" s="83" t="str">
+      <c r="M16" s="74">
         <f>data!O11</f>
-        <v>268</v>
-      </c>
-      <c r="N16" s="28">
+        <v>0</v>
+      </c>
+      <c r="N16" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>0.18656716417910446</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O16" s="30"/>
     </row>
     <row r="17" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B17" s="86"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="82" t="str">
+      <c r="D17" s="73">
         <f>data!J12</f>
-        <v>35800</v>
-      </c>
-      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>1556.5217391304348</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="25" t="str">
+      <c r="H17" s="25">
         <f>data!K12</f>
-        <v>36226</v>
-      </c>
-      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>1575.0434782608695</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J17" s="26">
         <f t="shared" si="0"/>
-        <v>-426</v>
-      </c>
-      <c r="K17" s="27">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="e">
         <f t="shared" si="3"/>
-        <v>-1.1759509744382488E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L17" s="31"/>
-      <c r="M17" s="83" t="str">
+      <c r="M17" s="74">
         <f>data!O12</f>
-        <v>27855</v>
-      </c>
-      <c r="N17" s="28">
+        <v>0</v>
+      </c>
+      <c r="N17" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>0.28522706874887804</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B18" s="86"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="82" t="str">
+      <c r="D18" s="73">
         <f>data!J13</f>
-        <v>17618</v>
-      </c>
-      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>766</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="24"/>
-      <c r="H18" s="25" t="str">
+      <c r="H18" s="25">
         <f>data!K13</f>
-        <v>20244</v>
-      </c>
-      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>880.17391304347825</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J18" s="26">
         <f t="shared" si="0"/>
-        <v>-2626</v>
-      </c>
-      <c r="K18" s="27">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27" t="e">
         <f t="shared" si="3"/>
-        <v>-0.12971744714483305</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L18" s="31"/>
-      <c r="M18" s="83" t="str">
+      <c r="M18" s="74">
         <f>data!O13</f>
-        <v>16772</v>
-      </c>
-      <c r="N18" s="28">
+        <v>0</v>
+      </c>
+      <c r="N18" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>5.0441211543047926E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B19" s="87"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="36">
         <f>D7+D8+D9+D10+D11+D12+D13+D14+D15+D16+D17+D18</f>
-        <v>690962</v>
-      </c>
-      <c r="E19" s="36">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36" t="e">
         <f>SUM(E7:E18)</f>
-        <v>30041.826086956524</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="36">
         <f>SUM(F7:F18)</f>
@@ -3210,28 +2760,28 @@
       <c r="G19" s="37"/>
       <c r="H19" s="36">
         <f>H7+H8+H9+H10+H11+H12+H13+H14+H15+H16+H17+H18</f>
-        <v>655951</v>
-      </c>
-      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="I19" s="36" t="e">
         <f>SUM(I7:I18)</f>
-        <v>28519.608695652179</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="38">
         <f>SUM(J7:J18)</f>
-        <v>35011</v>
-      </c>
-      <c r="K19" s="39">
+        <v>0</v>
+      </c>
+      <c r="K19" s="39" t="e">
         <f>J19/H19</f>
-        <v>5.3374413637604028E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="36">
         <f>M7+M8+M9+M10+M11+M12+M13+M14+M15+M16+M17+M18</f>
-        <v>612434</v>
-      </c>
-      <c r="N19" s="40">
+        <v>0</v>
+      </c>
+      <c r="N19" s="40" t="e">
         <f>(D19/M19)-1</f>
-        <v>0.1282227962523308</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -3273,9 +2823,9 @@
       <c r="D22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="81" t="str">
+      <c r="E22" s="72">
         <f>data!G2</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="37"/>
@@ -3289,9 +2839,9 @@
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="B23" s="78" t="str">
+      <c r="B23" s="78">
         <f>data!D2</f>
-        <v>05月</v>
+        <v>0</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>14</v>
@@ -3328,545 +2878,545 @@
       <c r="O23" s="9"/>
     </row>
     <row r="24" spans="2:15" s="15" customFormat="1" ht="15.75">
-      <c r="B24" s="72"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="82" t="str">
+      <c r="D24" s="73">
         <f>data!L2</f>
-        <v>12736</v>
-      </c>
-      <c r="E24" s="22">
-        <f>D24/$E$22</f>
-        <v>578.90909090909088</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="22" t="e">
+        <f t="shared" ref="E24:E29" si="10">D24/$E$22</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="24"/>
-      <c r="H24" s="25" t="str">
+      <c r="H24" s="25">
         <f>data!M2</f>
-        <v>11842</v>
-      </c>
-      <c r="I24" s="26">
-        <f>H24/$E$22</f>
-        <v>538.27272727272725</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="26" t="e">
+        <f t="shared" ref="I24:I29" si="11">H24/$E$22</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J24" s="26">
-        <f t="shared" ref="J24:J35" si="10">D24-H24</f>
-        <v>894</v>
-      </c>
-      <c r="K24" s="27">
+        <f t="shared" ref="J24:J35" si="12">D24-H24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="27" t="e">
         <f>J24/H24</f>
-        <v>7.5494004391150143E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L24" s="24"/>
-      <c r="M24" s="25" t="str">
+      <c r="M24" s="25">
         <f>data!P2</f>
-        <v>8191</v>
-      </c>
-      <c r="N24" s="28">
-        <f t="shared" ref="N24:N35" si="11">(D24/M24)-1</f>
-        <v>0.55487730435844229</v>
+        <v>0</v>
+      </c>
+      <c r="N24" s="28" t="e">
+        <f t="shared" ref="N24:N35" si="13">(D24/M24)-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B25" s="72"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="82" t="str">
+      <c r="D25" s="73">
         <f>data!L3</f>
-        <v>317052</v>
-      </c>
-      <c r="E25" s="22">
-        <f>D25/$E$22</f>
-        <v>14411.454545454546</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="24"/>
-      <c r="H25" s="25" t="str">
+      <c r="H25" s="25">
         <f>data!M3</f>
-        <v>318891</v>
-      </c>
-      <c r="I25" s="26">
-        <f>H25/$E$22</f>
-        <v>14495.045454545454</v>
+        <v>0</v>
+      </c>
+      <c r="I25" s="26" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J25" s="26">
-        <f t="shared" si="10"/>
-        <v>-1839</v>
-      </c>
-      <c r="K25" s="27">
-        <f t="shared" ref="K25:K31" si="12">J25/H25</f>
-        <v>-5.7668607768798742E-3</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="27" t="e">
+        <f t="shared" ref="K25:K31" si="14">J25/H25</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L25" s="31"/>
-      <c r="M25" s="25" t="str">
+      <c r="M25" s="25">
         <f>data!P3</f>
-        <v>266519</v>
-      </c>
-      <c r="N25" s="28">
-        <f t="shared" si="11"/>
-        <v>0.18960374307272643</v>
+        <v>0</v>
+      </c>
+      <c r="N25" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O25" s="30"/>
     </row>
     <row r="26" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B26" s="72"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="82" t="str">
+      <c r="D26" s="73">
         <f>data!L4</f>
-        <v>208445</v>
-      </c>
-      <c r="E26" s="22">
-        <f>D26/$E$22</f>
-        <v>9474.7727272727279</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="22" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="24"/>
-      <c r="H26" s="25" t="str">
+      <c r="H26" s="25">
         <f>data!M4</f>
-        <v>205797</v>
-      </c>
-      <c r="I26" s="26">
-        <f>H26/$E$22</f>
-        <v>9354.4090909090901</v>
+        <v>0</v>
+      </c>
+      <c r="I26" s="26" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J26" s="26">
-        <f t="shared" si="10"/>
-        <v>2648</v>
-      </c>
-      <c r="K26" s="27">
         <f t="shared" si="12"/>
-        <v>1.2867048596432406E-2</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L26" s="31"/>
-      <c r="M26" s="25" t="str">
+      <c r="M26" s="25">
         <f>data!P4</f>
-        <v>172530</v>
-      </c>
-      <c r="N26" s="28">
-        <f t="shared" si="11"/>
-        <v>0.20816669564713375</v>
+        <v>0</v>
+      </c>
+      <c r="N26" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O26" s="30"/>
     </row>
     <row r="27" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B27" s="72"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="82" t="str">
+      <c r="D27" s="73">
         <f>data!L5</f>
-        <v>303</v>
-      </c>
-      <c r="E27" s="22">
-        <f>D27/$E$22</f>
-        <v>13.772727272727273</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="22" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="24"/>
-      <c r="H27" s="25" t="str">
+      <c r="H27" s="25">
         <f>data!M5</f>
-        <v>200</v>
-      </c>
-      <c r="I27" s="26">
-        <f>H27/$E$22</f>
-        <v>9.0909090909090917</v>
+        <v>0</v>
+      </c>
+      <c r="I27" s="26" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J27" s="26">
-        <f t="shared" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="K27" s="27">
         <f t="shared" si="12"/>
-        <v>0.51500000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L27" s="31"/>
-      <c r="M27" s="25" t="str">
+      <c r="M27" s="25">
         <f>data!P5</f>
-        <v>249</v>
-      </c>
-      <c r="N27" s="28">
-        <f t="shared" si="11"/>
-        <v>0.2168674698795181</v>
+        <v>0</v>
+      </c>
+      <c r="N27" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O27" s="30"/>
     </row>
     <row r="28" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B28" s="72"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="82" t="str">
+      <c r="D28" s="73">
         <f>data!L6</f>
-        <v>8418</v>
-      </c>
-      <c r="E28" s="22">
-        <f>D28/$E$22</f>
-        <v>382.63636363636363</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="22" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="24"/>
-      <c r="H28" s="25" t="str">
+      <c r="H28" s="25">
         <f>data!M6</f>
-        <v>6903</v>
-      </c>
-      <c r="I28" s="26">
-        <f>H28/$E$22</f>
-        <v>313.77272727272725</v>
+        <v>0</v>
+      </c>
+      <c r="I28" s="26" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J28" s="26">
-        <f t="shared" ref="J28" si="13">D28-H28</f>
-        <v>1515</v>
-      </c>
-      <c r="K28" s="27">
-        <f t="shared" ref="K28" si="14">J28/H28</f>
-        <v>0.21946979574098219</v>
+        <f t="shared" ref="J28" si="15">D28-H28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="27" t="e">
+        <f t="shared" ref="K28" si="16">J28/H28</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L28" s="31"/>
-      <c r="M28" s="25" t="str">
+      <c r="M28" s="25">
         <f>data!P6</f>
-        <v>6530</v>
-      </c>
-      <c r="N28" s="28">
-        <f t="shared" si="11"/>
-        <v>0.28912710566615618</v>
+        <v>0</v>
+      </c>
+      <c r="N28" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O28" s="30"/>
     </row>
     <row r="29" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B29" s="72"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="82" t="str">
+      <c r="D29" s="73">
         <f>data!L7</f>
-        <v>5051</v>
-      </c>
-      <c r="E29" s="45">
-        <f>D29/$E$22</f>
-        <v>229.59090909090909</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="45" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="25" t="str">
+      <c r="H29" s="25">
         <f>data!M7</f>
-        <v>3754</v>
-      </c>
-      <c r="I29" s="32">
-        <f>H29/$E$22</f>
-        <v>170.63636363636363</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="32" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J29" s="32">
-        <f t="shared" si="10"/>
-        <v>1297</v>
-      </c>
-      <c r="K29" s="33">
         <f t="shared" si="12"/>
-        <v>0.34549813532232287</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="33" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L29" s="31"/>
-      <c r="M29" s="25" t="str">
+      <c r="M29" s="25">
         <f>data!P7</f>
-        <v>3852</v>
-      </c>
-      <c r="N29" s="34">
-        <f t="shared" si="11"/>
-        <v>0.31126687435098654</v>
+        <v>0</v>
+      </c>
+      <c r="N29" s="34" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O29" s="30"/>
     </row>
     <row r="30" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B30" s="72"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="82" t="str">
+      <c r="D30" s="73">
         <f>data!L8</f>
-        <v>409</v>
-      </c>
-      <c r="E30" s="22">
-        <f t="shared" ref="E30:E35" si="15">D30/$E$22</f>
-        <v>18.59090909090909</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="22" t="e">
+        <f t="shared" ref="E30:E35" si="17">D30/$E$22</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="30"/>
-      <c r="H30" s="25" t="str">
+      <c r="H30" s="25">
         <f>data!M8</f>
-        <v>451</v>
-      </c>
-      <c r="I30" s="26">
-        <f t="shared" ref="I30:I35" si="16">H30/$E$22</f>
-        <v>20.5</v>
+        <v>0</v>
+      </c>
+      <c r="I30" s="26" t="e">
+        <f t="shared" ref="I30:I35" si="18">H30/$E$22</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J30" s="26">
-        <f t="shared" si="10"/>
-        <v>-42</v>
-      </c>
-      <c r="K30" s="27">
         <f t="shared" si="12"/>
-        <v>-9.3126385809312637E-2</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L30" s="31"/>
-      <c r="M30" s="25" t="str">
+      <c r="M30" s="25">
         <f>data!P8</f>
-        <v>373</v>
-      </c>
-      <c r="N30" s="28">
-        <f t="shared" si="11"/>
-        <v>9.6514745308311056E-2</v>
+        <v>0</v>
+      </c>
+      <c r="N30" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O30" s="30"/>
     </row>
     <row r="31" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B31" s="72"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="82" t="str">
+      <c r="D31" s="73">
         <f>data!L9</f>
-        <v>4274</v>
-      </c>
-      <c r="E31" s="22">
-        <f t="shared" si="15"/>
-        <v>194.27272727272728</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="22" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="25" t="str">
+      <c r="H31" s="25">
         <f>data!M9</f>
-        <v>4335</v>
-      </c>
-      <c r="I31" s="26">
-        <f t="shared" si="16"/>
-        <v>197.04545454545453</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="26" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J31" s="26">
-        <f t="shared" si="10"/>
-        <v>-61</v>
-      </c>
-      <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>-1.4071510957324106E-2</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L31" s="31"/>
-      <c r="M31" s="25" t="str">
+      <c r="M31" s="25">
         <f>data!P9</f>
-        <v>2060</v>
-      </c>
-      <c r="N31" s="28">
-        <f t="shared" si="11"/>
-        <v>1.0747572815533979</v>
+        <v>0</v>
+      </c>
+      <c r="N31" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O31" s="30"/>
     </row>
     <row r="32" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B32" s="72"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="82" t="str">
+      <c r="D32" s="73">
         <f>data!L10</f>
-        <v>13681</v>
-      </c>
-      <c r="E32" s="22">
-        <f t="shared" si="15"/>
-        <v>621.86363636363637</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="22" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="19"/>
-      <c r="H32" s="25" t="str">
+      <c r="H32" s="25">
         <f>data!M10</f>
-        <v>14982</v>
-      </c>
-      <c r="I32" s="26">
-        <f t="shared" si="16"/>
-        <v>681</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="26" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J32" s="26">
-        <f t="shared" si="10"/>
-        <v>-1301</v>
-      </c>
-      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="27" t="e">
         <f>J32/H32</f>
-        <v>-8.6837538379388596E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L32" s="19"/>
-      <c r="M32" s="25" t="str">
+      <c r="M32" s="25">
         <f>data!P10</f>
-        <v>12077</v>
-      </c>
-      <c r="N32" s="28">
-        <f t="shared" si="11"/>
-        <v>0.13281444067235237</v>
+        <v>0</v>
+      </c>
+      <c r="N32" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B33" s="72"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="82" t="str">
+      <c r="D33" s="73">
         <f>data!L11</f>
-        <v>364</v>
-      </c>
-      <c r="E33" s="22">
-        <f t="shared" si="15"/>
-        <v>16.545454545454547</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="22" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="24"/>
-      <c r="H33" s="25" t="str">
+      <c r="H33" s="25">
         <f>data!M11</f>
-        <v>470</v>
-      </c>
-      <c r="I33" s="26">
-        <f t="shared" si="16"/>
-        <v>21.363636363636363</v>
+        <v>0</v>
+      </c>
+      <c r="I33" s="26" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J33" s="26">
-        <f t="shared" si="10"/>
-        <v>-106</v>
-      </c>
-      <c r="K33" s="27">
-        <f t="shared" ref="K33:K35" si="17">J33/H33</f>
-        <v>-0.22553191489361701</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="27" t="e">
+        <f t="shared" ref="K33:K35" si="19">J33/H33</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L33" s="31"/>
-      <c r="M33" s="25" t="str">
+      <c r="M33" s="25">
         <f>data!P11</f>
-        <v>195</v>
-      </c>
-      <c r="N33" s="28">
-        <f t="shared" si="11"/>
-        <v>0.8666666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="N33" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O33" s="30"/>
     </row>
     <row r="34" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B34" s="72"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="82" t="str">
+      <c r="D34" s="73">
         <f>data!L12</f>
-        <v>30853</v>
-      </c>
-      <c r="E34" s="22">
-        <f t="shared" si="15"/>
-        <v>1402.409090909091</v>
+        <v>0</v>
+      </c>
+      <c r="E34" s="22" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="24"/>
-      <c r="H34" s="25" t="str">
+      <c r="H34" s="25">
         <f>data!M12</f>
-        <v>28308</v>
-      </c>
-      <c r="I34" s="26">
-        <f t="shared" si="16"/>
-        <v>1286.7272727272727</v>
+        <v>0</v>
+      </c>
+      <c r="I34" s="26" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J34" s="26">
-        <f t="shared" si="10"/>
-        <v>2545</v>
-      </c>
-      <c r="K34" s="27">
-        <f t="shared" si="17"/>
-        <v>8.9903914087890349E-2</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="27" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L34" s="31"/>
-      <c r="M34" s="25" t="str">
+      <c r="M34" s="25">
         <f>data!P12</f>
-        <v>23733</v>
-      </c>
-      <c r="N34" s="28">
-        <f t="shared" si="11"/>
-        <v>0.30000421354232509</v>
+        <v>0</v>
+      </c>
+      <c r="N34" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O34" s="30"/>
     </row>
     <row r="35" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B35" s="72"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="82" t="str">
+      <c r="D35" s="73">
         <f>data!L13</f>
-        <v>16938</v>
-      </c>
-      <c r="E35" s="22">
-        <f t="shared" si="15"/>
-        <v>769.90909090909088</v>
+        <v>0</v>
+      </c>
+      <c r="E35" s="22" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="24"/>
-      <c r="H35" s="25" t="str">
+      <c r="H35" s="25">
         <f>data!M13</f>
-        <v>17251</v>
-      </c>
-      <c r="I35" s="26">
-        <f t="shared" si="16"/>
-        <v>784.13636363636363</v>
+        <v>0</v>
+      </c>
+      <c r="I35" s="26" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J35" s="26">
-        <f t="shared" si="10"/>
-        <v>-313</v>
-      </c>
-      <c r="K35" s="27">
-        <f t="shared" si="17"/>
-        <v>-1.8143875717349718E-2</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="27" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L35" s="31"/>
-      <c r="M35" s="25" t="str">
+      <c r="M35" s="25">
         <f>data!P13</f>
-        <v>14243</v>
-      </c>
-      <c r="N35" s="28">
-        <f t="shared" si="11"/>
-        <v>0.18921575510777222</v>
+        <v>0</v>
+      </c>
+      <c r="N35" s="28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O35" s="30"/>
     </row>
     <row r="36" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B36" s="73"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="36">
         <f>D24+D25+D26+D27+D28+D29+D30+D31+D32+D33+D34+D35</f>
-        <v>618524</v>
-      </c>
-      <c r="E36" s="36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="36" t="e">
         <f>SUM(E24:E35)</f>
-        <v>28114.727272727276</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F36" s="36">
         <f>SUM(F24:F35)</f>
@@ -3875,28 +3425,28 @@
       <c r="G36" s="37"/>
       <c r="H36" s="36">
         <f>H24+H25+H26+H27+H28+H29+H30+H31+H32+H33+H34+H35</f>
-        <v>613184</v>
-      </c>
-      <c r="I36" s="36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="36" t="e">
         <f>SUM(I24:I35)</f>
-        <v>27872</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J36" s="38">
         <f>SUM(J24:J35)</f>
-        <v>5340</v>
-      </c>
-      <c r="K36" s="39">
+        <v>0</v>
+      </c>
+      <c r="K36" s="39" t="e">
         <f>J36/H36</f>
-        <v>8.7086421041644921E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="36">
         <f>M24+M25+M26+M27+M28+M29+M30+M31+M32+M33+M34+M35</f>
-        <v>510552</v>
-      </c>
-      <c r="N36" s="40">
+        <v>0</v>
+      </c>
+      <c r="N36" s="40" t="e">
         <f>(D36/M36)-1</f>
-        <v>0.21148090693993948</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -3935,17 +3485,17 @@
       <c r="O38" s="30"/>
     </row>
     <row r="39" spans="2:15" s="15" customFormat="1" ht="15.75">
-      <c r="B39" s="79" t="str">
+      <c r="B39" s="84">
         <f>data!E2</f>
-        <v>06月</v>
+        <v>0</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="80" t="str">
+      <c r="E39" s="71">
         <f>data!H2</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="49"/>
@@ -3959,7 +3509,7 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="B40" s="75"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="16" t="s">
         <v>4</v>
       </c>
@@ -3995,17 +3545,17 @@
       <c r="O40" s="9"/>
     </row>
     <row r="41" spans="2:15" s="15" customFormat="1" ht="15.75">
-      <c r="B41" s="75"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="82" t="str">
+      <c r="D41" s="73">
         <f>data!N2</f>
-        <v>10437</v>
-      </c>
-      <c r="E41" s="22">
-        <f t="shared" ref="E41:E52" si="18">D41/$E$39</f>
-        <v>474.40909090909093</v>
+        <v>0</v>
+      </c>
+      <c r="E41" s="22" t="e">
+        <f t="shared" ref="E41:E52" si="20">D41/$E$39</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>11</v>
@@ -4024,9 +3574,9 @@
         <v>11</v>
       </c>
       <c r="L41" s="24"/>
-      <c r="M41" s="25" t="str">
+      <c r="M41" s="25">
         <f>data!Q2</f>
-        <v>7606</v>
+        <v>0</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>11</v>
@@ -4034,17 +3584,17 @@
       <c r="O41" s="9"/>
     </row>
     <row r="42" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B42" s="75"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="82" t="str">
+      <c r="D42" s="73">
         <f>data!N3</f>
-        <v>306033</v>
-      </c>
-      <c r="E42" s="22">
-        <f t="shared" si="18"/>
-        <v>13910.59090909091</v>
+        <v>0</v>
+      </c>
+      <c r="E42" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>11</v>
@@ -4063,9 +3613,9 @@
         <v>11</v>
       </c>
       <c r="L42" s="31"/>
-      <c r="M42" s="25" t="str">
+      <c r="M42" s="25">
         <f>data!Q3</f>
-        <v>260066</v>
+        <v>0</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>11</v>
@@ -4073,17 +3623,17 @@
       <c r="O42" s="30"/>
     </row>
     <row r="43" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B43" s="75"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="82" t="str">
+      <c r="D43" s="73">
         <f>data!N4</f>
-        <v>185365</v>
-      </c>
-      <c r="E43" s="22">
-        <f t="shared" si="18"/>
-        <v>8425.681818181818</v>
+        <v>0</v>
+      </c>
+      <c r="E43" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>11</v>
@@ -4102,9 +3652,9 @@
         <v>11</v>
       </c>
       <c r="L43" s="31"/>
-      <c r="M43" s="25" t="str">
+      <c r="M43" s="25">
         <f>data!Q4</f>
-        <v>169590</v>
+        <v>0</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>11</v>
@@ -4112,17 +3662,17 @@
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B44" s="75"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="82" t="str">
+      <c r="D44" s="73">
         <f>data!N5</f>
-        <v>128</v>
-      </c>
-      <c r="E44" s="22">
-        <f t="shared" si="18"/>
-        <v>5.8181818181818183</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>11</v>
@@ -4141,9 +3691,9 @@
         <v>11</v>
       </c>
       <c r="L44" s="31"/>
-      <c r="M44" s="25" t="str">
+      <c r="M44" s="25">
         <f>data!Q5</f>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>11</v>
@@ -4151,17 +3701,17 @@
       <c r="O44" s="30"/>
     </row>
     <row r="45" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B45" s="75"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="82" t="str">
+      <c r="D45" s="73">
         <f>data!N6</f>
-        <v>1893</v>
-      </c>
-      <c r="E45" s="22">
-        <f t="shared" si="18"/>
-        <v>86.045454545454547</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>11</v>
@@ -4180,9 +3730,9 @@
         <v>11</v>
       </c>
       <c r="L45" s="31"/>
-      <c r="M45" s="25" t="str">
+      <c r="M45" s="25">
         <f>data!Q6</f>
-        <v>1577</v>
+        <v>0</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>11</v>
@@ -4190,17 +3740,17 @@
       <c r="O45" s="30"/>
     </row>
     <row r="46" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B46" s="75"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="82" t="str">
+      <c r="D46" s="73">
         <f>data!N7</f>
-        <v>1028</v>
-      </c>
-      <c r="E46" s="22">
-        <f t="shared" si="18"/>
-        <v>46.727272727272727</v>
+        <v>0</v>
+      </c>
+      <c r="E46" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>11</v>
@@ -4219,9 +3769,9 @@
         <v>11</v>
       </c>
       <c r="L46" s="31"/>
-      <c r="M46" s="25" t="str">
+      <c r="M46" s="25">
         <f>data!Q7</f>
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>11</v>
@@ -4229,17 +3779,17 @@
       <c r="O46" s="30"/>
     </row>
     <row r="47" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B47" s="75"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="82" t="str">
+      <c r="D47" s="73">
         <f>data!N8</f>
-        <v>427</v>
-      </c>
-      <c r="E47" s="22">
-        <f t="shared" si="18"/>
-        <v>19.40909090909091</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>11</v>
@@ -4258,9 +3808,9 @@
         <v>11</v>
       </c>
       <c r="L47" s="31"/>
-      <c r="M47" s="25" t="str">
+      <c r="M47" s="25">
         <f>data!Q8</f>
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>11</v>
@@ -4268,17 +3818,17 @@
       <c r="O47" s="30"/>
     </row>
     <row r="48" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B48" s="75"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="82" t="str">
+      <c r="D48" s="73">
         <f>data!N9</f>
-        <v>4149</v>
-      </c>
-      <c r="E48" s="22">
-        <f t="shared" si="18"/>
-        <v>188.59090909090909</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>11</v>
@@ -4297,9 +3847,9 @@
         <v>11</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="M48" s="25" t="str">
+      <c r="M48" s="25">
         <f>data!Q9</f>
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>11</v>
@@ -4307,17 +3857,17 @@
       <c r="O48" s="30"/>
     </row>
     <row r="49" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B49" s="75"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="82" t="str">
+      <c r="D49" s="73">
         <f>data!N10</f>
-        <v>13834</v>
-      </c>
-      <c r="E49" s="22">
-        <f t="shared" si="18"/>
-        <v>628.81818181818187</v>
+        <v>0</v>
+      </c>
+      <c r="E49" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>11</v>
@@ -4336,9 +3886,9 @@
         <v>11</v>
       </c>
       <c r="L49" s="31"/>
-      <c r="M49" s="25" t="str">
+      <c r="M49" s="25">
         <f>data!Q10</f>
-        <v>12542</v>
+        <v>0</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>11</v>
@@ -4346,17 +3896,17 @@
       <c r="O49" s="30"/>
     </row>
     <row r="50" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B50" s="75"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="82" t="str">
+      <c r="D50" s="73">
         <f>data!N11</f>
-        <v>328</v>
-      </c>
-      <c r="E50" s="22">
-        <f t="shared" ref="E50" si="19">D50/$E$39</f>
-        <v>14.909090909090908</v>
+        <v>0</v>
+      </c>
+      <c r="E50" s="22" t="e">
+        <f t="shared" ref="E50" si="21">D50/$E$39</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>11</v>
@@ -4375,9 +3925,9 @@
         <v>11</v>
       </c>
       <c r="L50" s="31"/>
-      <c r="M50" s="25" t="str">
+      <c r="M50" s="25">
         <f>data!Q11</f>
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>11</v>
@@ -4385,17 +3935,17 @@
       <c r="O50" s="30"/>
     </row>
     <row r="51" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B51" s="75"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="82" t="str">
+      <c r="D51" s="73">
         <f>data!N12</f>
-        <v>27595</v>
-      </c>
-      <c r="E51" s="22">
-        <f t="shared" si="18"/>
-        <v>1254.3181818181818</v>
+        <v>0</v>
+      </c>
+      <c r="E51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>11</v>
@@ -4414,9 +3964,9 @@
         <v>11</v>
       </c>
       <c r="L51" s="31"/>
-      <c r="M51" s="25" t="str">
+      <c r="M51" s="25">
         <f>data!Q12</f>
-        <v>24987</v>
+        <v>0</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>11</v>
@@ -4424,17 +3974,17 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B52" s="75"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="82" t="str">
+      <c r="D52" s="73">
         <f>data!N13</f>
-        <v>16062</v>
-      </c>
-      <c r="E52" s="22">
-        <f t="shared" si="18"/>
-        <v>730.09090909090912</v>
+        <v>0</v>
+      </c>
+      <c r="E52" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>11</v>
@@ -4453,9 +4003,9 @@
         <v>11</v>
       </c>
       <c r="L52" s="31"/>
-      <c r="M52" s="25" t="str">
+      <c r="M52" s="25">
         <f>data!Q13</f>
-        <v>15497</v>
+        <v>0</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>11</v>
@@ -4463,17 +4013,17 @@
       <c r="O52" s="30"/>
     </row>
     <row r="53" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B53" s="76"/>
+      <c r="B53" s="86"/>
       <c r="C53" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="36">
         <f>D41+D42+D43+D44+D45+D46+D47+D48+D49+D50+D51+D52</f>
-        <v>567279</v>
-      </c>
-      <c r="E53" s="36">
-        <f t="shared" ref="E53" si="20">SUM(E41:E52)</f>
-        <v>25785.409090909085</v>
+        <v>0</v>
+      </c>
+      <c r="E53" s="36" t="e">
+        <f t="shared" ref="E53" si="22">SUM(E41:E52)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="36">
         <f>SUM(F41:F52)</f>
@@ -4499,11 +4049,11 @@
       <c r="L53" s="55"/>
       <c r="M53" s="36">
         <f>M41+M42+M43+M44+M45+M46+M47+M48+M49+M50+M51+M52</f>
-        <v>495761</v>
-      </c>
-      <c r="N53" s="40">
+        <v>0</v>
+      </c>
+      <c r="N53" s="40" t="e">
         <f>(D53/M53)-1</f>
-        <v>0.14425902803972068</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -4514,12 +4064,12 @@
       <c r="E54" s="30"/>
       <c r="F54" s="9"/>
       <c r="G54" s="30"/>
-      <c r="H54" s="74" t="s">
+      <c r="H54" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
@@ -4587,7 +4137,8 @@
       <c r="N59" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B6:B19"/>
     <mergeCell ref="B23:B36"/>
@@ -4603,707 +4154,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB5A861-4050-435E-80CD-E5463A8DECE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="17" width="7.125" style="84" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="84"/>
+    <col min="1" max="17" width="7.125" style="75" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="D1" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="F1" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="84" t="s">
+      <c r="J1" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="M1" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="N1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="84" t="s">
+      <c r="O1" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="84" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="2" spans="1:17" ht="14.25">
-      <c r="A2" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>147</v>
-      </c>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="14.25">
-      <c r="A3" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q3" s="84" t="s">
-        <v>148</v>
-      </c>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:17" ht="14.25">
-      <c r="A4" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>149</v>
-      </c>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:17" ht="14.25">
-      <c r="A5" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="84" t="s">
-        <v>150</v>
-      </c>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:17" ht="14.25">
-      <c r="A6" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" s="84" t="s">
-        <v>151</v>
-      </c>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:17" ht="14.25">
-      <c r="A7" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="O7" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="P7" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q7" s="84" t="s">
-        <v>152</v>
-      </c>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:17" ht="14.25">
-      <c r="A8" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="P8" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q8" s="84" t="s">
-        <v>154</v>
-      </c>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:17" ht="14.25">
-      <c r="A9" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="O9" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="P9" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q9" s="84" t="s">
-        <v>153</v>
-      </c>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:17" ht="14.25">
-      <c r="A10" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="N10" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="O10" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="P10" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" s="84" t="s">
-        <v>155</v>
-      </c>
+      <c r="I10" s="76"/>
     </row>
     <row r="11" spans="1:17" ht="14.25">
-      <c r="A11" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="O11" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="P11" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" s="84" t="s">
-        <v>156</v>
-      </c>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:17" ht="14.25">
-      <c r="A12" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="N12" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="P12" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q12" s="84" t="s">
-        <v>157</v>
-      </c>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:17" ht="14.25">
-      <c r="A13" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="84" t="s">
-        <v>158</v>
-      </c>
+      <c r="I13" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/SPPSApi/Doc/Template/FTMS内示总结.xlsx
+++ b/SPPSApi/Doc/Template/FTMS内示总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="56">
   <si>
     <t>本月内示</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -599,7 +599,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,12 +621,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,6 +1018,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,129 +1036,126 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1193,13 +1187,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
@@ -1248,19 +1242,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1273,13 +1267,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1306,7 +1300,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,41 +1314,41 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,9 +1510,6 @@
     <xf numFmtId="9" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,6 +1577,9 @@
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1616,8 +1610,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="130">
@@ -2063,15 +2057,15 @@
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.75" style="56" customWidth="1"/>
+    <col min="4" max="5" width="10.75" style="55" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="56" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="57" customWidth="1"/>
-    <col min="10" max="11" width="10.25" style="56" customWidth="1"/>
-    <col min="12" max="12" width="2.125" style="56" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="56" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="2.125" style="56" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="55" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="56" customWidth="1"/>
+    <col min="10" max="11" width="10.25" style="55" customWidth="1"/>
+    <col min="12" max="12" width="2.125" style="55" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="55" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="55" customWidth="1"/>
     <col min="15" max="15" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
@@ -2086,13 +2080,13 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="87" t="str">
+      <c r="M1" s="76" t="str">
         <f>"补给资材企管课
 "&amp;data!A2</f>
         <v xml:space="preserve">补给资材企管课
 </v>
       </c>
-      <c r="N1" s="87"/>
+      <c r="N1" s="76"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:15" s="7" customFormat="1" ht="30" customHeight="1">
@@ -2154,7 +2148,7 @@
       <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="71">
         <f>data!F2</f>
         <v>0</v>
       </c>
@@ -2217,7 +2211,7 @@
       <c r="C7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="72">
         <f>data!J2</f>
         <v>0</v>
       </c>
@@ -2246,7 +2240,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="74">
+      <c r="M7" s="73">
         <f>data!O2</f>
         <v>0</v>
       </c>
@@ -2261,7 +2255,7 @@
       <c r="C8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <f>data!J3</f>
         <v>0</v>
       </c>
@@ -2290,7 +2284,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="31"/>
-      <c r="M8" s="74">
+      <c r="M8" s="73">
         <f>data!O3</f>
         <v>0</v>
       </c>
@@ -2305,7 +2299,7 @@
       <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="72">
         <f>data!J4</f>
         <v>0</v>
       </c>
@@ -2334,7 +2328,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="74">
+      <c r="M9" s="73">
         <f>data!O4</f>
         <v>0</v>
       </c>
@@ -2349,7 +2343,7 @@
       <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="72">
         <f>data!J5</f>
         <v>0</v>
       </c>
@@ -2378,7 +2372,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f>data!O5</f>
         <v>0</v>
       </c>
@@ -2393,7 +2387,7 @@
       <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="72">
         <f>data!J6</f>
         <v>0</v>
       </c>
@@ -2422,7 +2416,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="74">
+      <c r="M11" s="73">
         <f>data!O6</f>
         <v>0</v>
       </c>
@@ -2437,7 +2431,7 @@
       <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <f>data!J7</f>
         <v>0</v>
       </c>
@@ -2466,7 +2460,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="74">
+      <c r="M12" s="73">
         <f>data!O7</f>
         <v>0</v>
       </c>
@@ -2481,7 +2475,7 @@
       <c r="C13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="72">
         <f>data!J8</f>
         <v>0</v>
       </c>
@@ -2510,7 +2504,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="74">
+      <c r="M13" s="73">
         <f>data!O8</f>
         <v>0</v>
       </c>
@@ -2525,7 +2519,7 @@
       <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="72">
         <f>data!J9</f>
         <v>0</v>
       </c>
@@ -2554,7 +2548,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="74">
+      <c r="M14" s="73">
         <f>data!O9</f>
         <v>0</v>
       </c>
@@ -2569,7 +2563,7 @@
       <c r="C15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="72">
         <f>data!J10</f>
         <v>0</v>
       </c>
@@ -2598,7 +2592,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="19"/>
-      <c r="M15" s="74">
+      <c r="M15" s="73">
         <f>data!O10</f>
         <v>0</v>
       </c>
@@ -2613,7 +2607,7 @@
       <c r="C16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="72">
         <f>data!J11</f>
         <v>0</v>
       </c>
@@ -2642,7 +2636,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="31"/>
-      <c r="M16" s="74">
+      <c r="M16" s="73">
         <f>data!O11</f>
         <v>0</v>
       </c>
@@ -2657,7 +2651,7 @@
       <c r="C17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="72">
         <f>data!J12</f>
         <v>0</v>
       </c>
@@ -2686,7 +2680,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="31"/>
-      <c r="M17" s="74">
+      <c r="M17" s="73">
         <f>data!O12</f>
         <v>0</v>
       </c>
@@ -2701,7 +2695,7 @@
       <c r="C18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="72">
         <f>data!J13</f>
         <v>0</v>
       </c>
@@ -2730,7 +2724,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="31"/>
-      <c r="M18" s="74">
+      <c r="M18" s="73">
         <f>data!O13</f>
         <v>0</v>
       </c>
@@ -2823,7 +2817,7 @@
       <c r="D22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="71">
         <f>data!G2</f>
         <v>0</v>
       </c>
@@ -2882,7 +2876,7 @@
       <c r="C24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="72">
         <f>data!L2</f>
         <v>0</v>
       </c>
@@ -2926,7 +2920,7 @@
       <c r="C25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="72">
         <f>data!L3</f>
         <v>0</v>
       </c>
@@ -2970,7 +2964,7 @@
       <c r="C26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="73">
+      <c r="D26" s="72">
         <f>data!L4</f>
         <v>0</v>
       </c>
@@ -3014,7 +3008,7 @@
       <c r="C27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="72">
         <f>data!L5</f>
         <v>0</v>
       </c>
@@ -3058,7 +3052,7 @@
       <c r="C28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" s="72">
         <f>data!L6</f>
         <v>0</v>
       </c>
@@ -3102,7 +3096,7 @@
       <c r="C29" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="73">
+      <c r="D29" s="72">
         <f>data!L7</f>
         <v>0</v>
       </c>
@@ -3146,7 +3140,7 @@
       <c r="C30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="73">
+      <c r="D30" s="72">
         <f>data!L8</f>
         <v>0</v>
       </c>
@@ -3190,7 +3184,7 @@
       <c r="C31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="73">
+      <c r="D31" s="72">
         <f>data!L9</f>
         <v>0</v>
       </c>
@@ -3234,7 +3228,7 @@
       <c r="C32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="73">
+      <c r="D32" s="72">
         <f>data!L10</f>
         <v>0</v>
       </c>
@@ -3278,7 +3272,7 @@
       <c r="C33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="72">
         <f>data!L11</f>
         <v>0</v>
       </c>
@@ -3322,7 +3316,7 @@
       <c r="C34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="72">
         <f>data!L12</f>
         <v>0</v>
       </c>
@@ -3366,7 +3360,7 @@
       <c r="C35" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="72">
         <f>data!L13</f>
         <v>0</v>
       </c>
@@ -3493,7 +3487,7 @@
       <c r="D39" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="70">
         <f>data!H2</f>
         <v>0</v>
       </c>
@@ -3549,7 +3543,7 @@
       <c r="C41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="73">
+      <c r="D41" s="72">
         <f>data!N2</f>
         <v>0</v>
       </c>
@@ -3561,16 +3555,16 @@
         <v>11</v>
       </c>
       <c r="G41" s="24"/>
-      <c r="H41" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="53" t="s">
+      <c r="H41" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="24"/>
@@ -3578,8 +3572,9 @@
         <f>data!Q2</f>
         <v>0</v>
       </c>
-      <c r="N41" s="23" t="s">
-        <v>11</v>
+      <c r="N41" s="28" t="e">
+        <f t="shared" ref="N41:N52" si="21">(D41/M41)-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O41" s="9"/>
     </row>
@@ -3588,7 +3583,7 @@
       <c r="C42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="73">
+      <c r="D42" s="72">
         <f>data!N3</f>
         <v>0</v>
       </c>
@@ -3600,16 +3595,16 @@
         <v>11</v>
       </c>
       <c r="G42" s="24"/>
-      <c r="H42" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="53" t="s">
+      <c r="H42" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="31"/>
@@ -3617,8 +3612,9 @@
         <f>data!Q3</f>
         <v>0</v>
       </c>
-      <c r="N42" s="23" t="s">
-        <v>11</v>
+      <c r="N42" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -3627,7 +3623,7 @@
       <c r="C43" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="73">
+      <c r="D43" s="72">
         <f>data!N4</f>
         <v>0</v>
       </c>
@@ -3639,16 +3635,16 @@
         <v>11</v>
       </c>
       <c r="G43" s="24"/>
-      <c r="H43" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="53" t="s">
+      <c r="H43" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="31"/>
@@ -3656,8 +3652,9 @@
         <f>data!Q4</f>
         <v>0</v>
       </c>
-      <c r="N43" s="23" t="s">
-        <v>11</v>
+      <c r="N43" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -3666,7 +3663,7 @@
       <c r="C44" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" s="72">
         <f>data!N5</f>
         <v>0</v>
       </c>
@@ -3678,16 +3675,16 @@
         <v>11</v>
       </c>
       <c r="G44" s="24"/>
-      <c r="H44" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="53" t="s">
+      <c r="H44" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="31"/>
@@ -3695,8 +3692,9 @@
         <f>data!Q5</f>
         <v>0</v>
       </c>
-      <c r="N44" s="23" t="s">
-        <v>11</v>
+      <c r="N44" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -3705,7 +3703,7 @@
       <c r="C45" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="73">
+      <c r="D45" s="72">
         <f>data!N6</f>
         <v>0</v>
       </c>
@@ -3717,16 +3715,16 @@
         <v>11</v>
       </c>
       <c r="G45" s="30"/>
-      <c r="H45" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="53" t="s">
+      <c r="H45" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="31"/>
@@ -3734,8 +3732,9 @@
         <f>data!Q6</f>
         <v>0</v>
       </c>
-      <c r="N45" s="23" t="s">
-        <v>11</v>
+      <c r="N45" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O45" s="30"/>
     </row>
@@ -3744,7 +3743,7 @@
       <c r="C46" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="72">
         <f>data!N7</f>
         <v>0</v>
       </c>
@@ -3756,16 +3755,16 @@
         <v>11</v>
       </c>
       <c r="G46" s="30"/>
-      <c r="H46" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="53" t="s">
+      <c r="H46" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="31"/>
@@ -3773,8 +3772,9 @@
         <f>data!Q7</f>
         <v>0</v>
       </c>
-      <c r="N46" s="23" t="s">
-        <v>11</v>
+      <c r="N46" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -3783,7 +3783,7 @@
       <c r="C47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="72">
         <f>data!N8</f>
         <v>0</v>
       </c>
@@ -3795,16 +3795,16 @@
         <v>11</v>
       </c>
       <c r="G47" s="30"/>
-      <c r="H47" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="53" t="s">
+      <c r="H47" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="31"/>
@@ -3812,8 +3812,9 @@
         <f>data!Q8</f>
         <v>0</v>
       </c>
-      <c r="N47" s="23" t="s">
-        <v>11</v>
+      <c r="N47" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -3822,7 +3823,7 @@
       <c r="C48" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="73">
+      <c r="D48" s="72">
         <f>data!N9</f>
         <v>0</v>
       </c>
@@ -3834,16 +3835,16 @@
         <v>11</v>
       </c>
       <c r="G48" s="19"/>
-      <c r="H48" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="53" t="s">
+      <c r="H48" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="19"/>
@@ -3851,8 +3852,9 @@
         <f>data!Q9</f>
         <v>0</v>
       </c>
-      <c r="N48" s="23" t="s">
-        <v>11</v>
+      <c r="N48" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O48" s="30"/>
     </row>
@@ -3861,7 +3863,7 @@
       <c r="C49" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="73">
+      <c r="D49" s="72">
         <f>data!N10</f>
         <v>0</v>
       </c>
@@ -3873,16 +3875,16 @@
         <v>11</v>
       </c>
       <c r="G49" s="24"/>
-      <c r="H49" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="53" t="s">
+      <c r="H49" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="31"/>
@@ -3890,8 +3892,9 @@
         <f>data!Q10</f>
         <v>0</v>
       </c>
-      <c r="N49" s="23" t="s">
-        <v>11</v>
+      <c r="N49" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -3900,28 +3903,28 @@
       <c r="C50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="73">
+      <c r="D50" s="72">
         <f>data!N11</f>
         <v>0</v>
       </c>
       <c r="E50" s="22" t="e">
-        <f t="shared" ref="E50" si="21">D50/$E$39</f>
+        <f t="shared" ref="E50" si="22">D50/$E$39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="24"/>
-      <c r="H50" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="53" t="s">
+      <c r="H50" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="31"/>
@@ -3929,8 +3932,9 @@
         <f>data!Q11</f>
         <v>0</v>
       </c>
-      <c r="N50" s="23" t="s">
-        <v>11</v>
+      <c r="N50" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -3939,7 +3943,7 @@
       <c r="C51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="72">
         <f>data!N12</f>
         <v>0</v>
       </c>
@@ -3951,16 +3955,16 @@
         <v>11</v>
       </c>
       <c r="G51" s="24"/>
-      <c r="H51" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="53" t="s">
+      <c r="H51" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="31"/>
@@ -3968,8 +3972,9 @@
         <f>data!Q12</f>
         <v>0</v>
       </c>
-      <c r="N51" s="23" t="s">
-        <v>11</v>
+      <c r="N51" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O51" s="30"/>
     </row>
@@ -3978,7 +3983,7 @@
       <c r="C52" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="73">
+      <c r="D52" s="72">
         <f>data!N13</f>
         <v>0</v>
       </c>
@@ -3990,16 +3995,16 @@
         <v>11</v>
       </c>
       <c r="G52" s="24"/>
-      <c r="H52" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="53" t="s">
+      <c r="H52" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="31"/>
@@ -4007,8 +4012,9 @@
         <f>data!Q13</f>
         <v>0</v>
       </c>
-      <c r="N52" s="23" t="s">
-        <v>11</v>
+      <c r="N52" s="28" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -4022,14 +4028,14 @@
         <v>0</v>
       </c>
       <c r="E53" s="36" t="e">
-        <f t="shared" ref="E53" si="22">SUM(E41:E52)</f>
+        <f t="shared" ref="E53" si="23">SUM(E41:E52)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="36">
         <f>SUM(F41:F52)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="54"/>
+      <c r="G53" s="53"/>
       <c r="H53" s="36">
         <f>SUM(H41:H52)</f>
         <v>0</v>
@@ -4046,7 +4052,7 @@
         <f>J53/H53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="55"/>
+      <c r="L53" s="54"/>
       <c r="M53" s="36">
         <f>M41+M42+M43+M44+M45+M46+M47+M48+M49+M50+M51+M52</f>
         <v>0</v>
@@ -4081,60 +4087,60 @@
       </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="61"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="60"/>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="64"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="63"/>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="62"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="64"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="63"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="70"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4163,101 +4169,102 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="17" width="7.125" style="75" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="75"/>
+    <col min="1" max="17" width="7.125" style="74" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="75" t="s">
+      <c r="P1" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="74" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25">
-      <c r="I2" s="76"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="14.25">
-      <c r="I3" s="76"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:17" ht="14.25">
-      <c r="I4" s="76"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="1:17" ht="14.25">
-      <c r="I5" s="76"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:17" ht="14.25">
-      <c r="I6" s="76"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:17" ht="14.25">
-      <c r="I7" s="76"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:17" ht="14.25">
-      <c r="I8" s="76"/>
+      <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:17" ht="14.25">
-      <c r="I9" s="76"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="1:17" ht="14.25">
-      <c r="I10" s="76"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="1:17" ht="14.25">
-      <c r="I11" s="76"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:17" ht="14.25">
-      <c r="I12" s="76"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:17" ht="14.25">
-      <c r="I13" s="76"/>
+      <c r="I13" s="75"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FTMS内示总结.xlsx
+++ b/SPPSApi/Doc/Template/FTMS内示总结.xlsx
@@ -1352,7 +1352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1489,27 +1489,6 @@
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,9 +1539,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1577,6 +1553,9 @@
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1601,16 +1580,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1757,6 +1739,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="8286750"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2048,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2057,15 +2093,15 @@
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.75" style="55" customWidth="1"/>
+    <col min="4" max="5" width="10.75" style="48" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="55" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="56" customWidth="1"/>
-    <col min="10" max="11" width="10.25" style="55" customWidth="1"/>
-    <col min="12" max="12" width="2.125" style="55" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="55" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="2.125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="48" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="49" customWidth="1"/>
+    <col min="10" max="11" width="10.25" style="48" customWidth="1"/>
+    <col min="12" max="12" width="2.125" style="48" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="48" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="48" customWidth="1"/>
     <col min="15" max="15" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
@@ -2080,32 +2116,32 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="76" t="str">
+      <c r="M1" s="69" t="str">
         <f>"补给资材企管课
 "&amp;data!A2</f>
         <v xml:space="preserve">补给资材企管课
 </v>
       </c>
-      <c r="N1" s="76"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:15" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="B2" s="77" t="str">
+      <c r="B2" s="70" t="str">
         <f>"FTMS内示总结（"&amp;data!B2&amp;"）"</f>
         <v>FTMS内示总结（）</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="2:15" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -2148,7 +2184,7 @@
       <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="63">
         <f>data!F2</f>
         <v>0</v>
       </c>
@@ -2168,7 +2204,7 @@
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="2:15" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="78">
+      <c r="B6" s="71">
         <f>data!C2</f>
         <v>0</v>
       </c>
@@ -2207,11 +2243,11 @@
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B7" s="79"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="64">
         <f>data!J2</f>
         <v>0</v>
       </c>
@@ -2240,7 +2276,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="73">
+      <c r="M7" s="65">
         <f>data!O2</f>
         <v>0</v>
       </c>
@@ -2251,11 +2287,11 @@
       <c r="O7" s="30"/>
     </row>
     <row r="8" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B8" s="79"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="64">
         <f>data!J3</f>
         <v>0</v>
       </c>
@@ -2284,7 +2320,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="31"/>
-      <c r="M8" s="73">
+      <c r="M8" s="65">
         <f>data!O3</f>
         <v>0</v>
       </c>
@@ -2295,11 +2331,11 @@
       <c r="O8" s="30"/>
     </row>
     <row r="9" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B9" s="79"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="64">
         <f>data!J4</f>
         <v>0</v>
       </c>
@@ -2328,7 +2364,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="73">
+      <c r="M9" s="65">
         <f>data!O4</f>
         <v>0</v>
       </c>
@@ -2339,11 +2375,11 @@
       <c r="O9" s="30"/>
     </row>
     <row r="10" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B10" s="79"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="64">
         <f>data!J5</f>
         <v>0</v>
       </c>
@@ -2372,7 +2408,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="73">
+      <c r="M10" s="65">
         <f>data!O5</f>
         <v>0</v>
       </c>
@@ -2383,11 +2419,11 @@
       <c r="O10" s="30"/>
     </row>
     <row r="11" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B11" s="79"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="64">
         <f>data!J6</f>
         <v>0</v>
       </c>
@@ -2416,7 +2452,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="73">
+      <c r="M11" s="65">
         <f>data!O6</f>
         <v>0</v>
       </c>
@@ -2427,11 +2463,11 @@
       <c r="O11" s="30"/>
     </row>
     <row r="12" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B12" s="79"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="64">
         <f>data!J7</f>
         <v>0</v>
       </c>
@@ -2460,7 +2496,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="73">
+      <c r="M12" s="65">
         <f>data!O7</f>
         <v>0</v>
       </c>
@@ -2471,11 +2507,11 @@
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B13" s="79"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="64">
         <f>data!J8</f>
         <v>0</v>
       </c>
@@ -2504,7 +2540,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="73">
+      <c r="M13" s="65">
         <f>data!O8</f>
         <v>0</v>
       </c>
@@ -2515,11 +2551,11 @@
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B14" s="79"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="64">
         <f>data!J9</f>
         <v>0</v>
       </c>
@@ -2548,7 +2584,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="73">
+      <c r="M14" s="65">
         <f>data!O9</f>
         <v>0</v>
       </c>
@@ -2559,11 +2595,11 @@
       <c r="O14" s="30"/>
     </row>
     <row r="15" spans="2:15" s="15" customFormat="1" ht="15.75">
-      <c r="B15" s="79"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="64">
         <f>data!J10</f>
         <v>0</v>
       </c>
@@ -2592,7 +2628,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="19"/>
-      <c r="M15" s="73">
+      <c r="M15" s="65">
         <f>data!O10</f>
         <v>0</v>
       </c>
@@ -2603,11 +2639,11 @@
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B16" s="79"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="64">
         <f>data!J11</f>
         <v>0</v>
       </c>
@@ -2636,7 +2672,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="31"/>
-      <c r="M16" s="73">
+      <c r="M16" s="65">
         <f>data!O11</f>
         <v>0</v>
       </c>
@@ -2647,11 +2683,11 @@
       <c r="O16" s="30"/>
     </row>
     <row r="17" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B17" s="79"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="64">
         <f>data!J12</f>
         <v>0</v>
       </c>
@@ -2680,7 +2716,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="31"/>
-      <c r="M17" s="73">
+      <c r="M17" s="65">
         <f>data!O12</f>
         <v>0</v>
       </c>
@@ -2691,11 +2727,11 @@
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B18" s="79"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="64">
         <f>data!J13</f>
         <v>0</v>
       </c>
@@ -2724,7 +2760,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="31"/>
-      <c r="M18" s="73">
+      <c r="M18" s="65">
         <f>data!O13</f>
         <v>0</v>
       </c>
@@ -2735,7 +2771,7 @@
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B19" s="80"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="35" t="s">
         <v>12</v>
       </c>
@@ -2817,7 +2853,7 @@
       <c r="D22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="63">
         <f>data!G2</f>
         <v>0</v>
       </c>
@@ -2833,7 +2869,7 @@
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="B23" s="78">
+      <c r="B23" s="71">
         <f>data!D2</f>
         <v>0</v>
       </c>
@@ -2872,11 +2908,11 @@
       <c r="O23" s="9"/>
     </row>
     <row r="24" spans="2:15" s="15" customFormat="1" ht="15.75">
-      <c r="B24" s="81"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="64">
         <f>data!L2</f>
         <v>0</v>
       </c>
@@ -2916,11 +2952,11 @@
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B25" s="81"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="64">
         <f>data!L3</f>
         <v>0</v>
       </c>
@@ -2960,11 +2996,11 @@
       <c r="O25" s="30"/>
     </row>
     <row r="26" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B26" s="81"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="64">
         <f>data!L4</f>
         <v>0</v>
       </c>
@@ -3004,11 +3040,11 @@
       <c r="O26" s="30"/>
     </row>
     <row r="27" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B27" s="81"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="64">
         <f>data!L5</f>
         <v>0</v>
       </c>
@@ -3048,11 +3084,11 @@
       <c r="O27" s="30"/>
     </row>
     <row r="28" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B28" s="81"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="64">
         <f>data!L6</f>
         <v>0</v>
       </c>
@@ -3092,11 +3128,11 @@
       <c r="O28" s="30"/>
     </row>
     <row r="29" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B29" s="81"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="64">
         <f>data!L7</f>
         <v>0</v>
       </c>
@@ -3136,11 +3172,11 @@
       <c r="O29" s="30"/>
     </row>
     <row r="30" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B30" s="81"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="64">
         <f>data!L8</f>
         <v>0</v>
       </c>
@@ -3180,11 +3216,11 @@
       <c r="O30" s="30"/>
     </row>
     <row r="31" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B31" s="81"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="64">
         <f>data!L9</f>
         <v>0</v>
       </c>
@@ -3224,11 +3260,11 @@
       <c r="O31" s="30"/>
     </row>
     <row r="32" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B32" s="81"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="64">
         <f>data!L10</f>
         <v>0</v>
       </c>
@@ -3268,11 +3304,11 @@
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B33" s="81"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="64">
         <f>data!L11</f>
         <v>0</v>
       </c>
@@ -3312,11 +3348,11 @@
       <c r="O33" s="30"/>
     </row>
     <row r="34" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B34" s="81"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="64">
         <f>data!L12</f>
         <v>0</v>
       </c>
@@ -3356,11 +3392,11 @@
       <c r="O34" s="30"/>
     </row>
     <row r="35" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B35" s="81"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="64">
         <f>data!L13</f>
         <v>0</v>
       </c>
@@ -3400,7 +3436,7 @@
       <c r="O35" s="30"/>
     </row>
     <row r="36" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B36" s="82"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="35" t="s">
         <v>12</v>
       </c>
@@ -3479,31 +3515,31 @@
       <c r="O38" s="30"/>
     </row>
     <row r="39" spans="2:15" s="15" customFormat="1" ht="15.75">
-      <c r="B39" s="84">
+      <c r="B39" s="79">
         <f>data!E2</f>
         <v>0</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="63">
         <f>data!H2</f>
         <v>0</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="52"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="81"/>
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="B40" s="85"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="16" t="s">
         <v>4</v>
       </c>
@@ -3539,11 +3575,11 @@
       <c r="O40" s="9"/>
     </row>
     <row r="41" spans="2:15" s="15" customFormat="1" ht="15.75">
-      <c r="B41" s="85"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="72">
+      <c r="D41" s="64">
         <f>data!N2</f>
         <v>0</v>
       </c>
@@ -3555,16 +3591,16 @@
         <v>11</v>
       </c>
       <c r="G41" s="24"/>
-      <c r="H41" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="87" t="s">
+      <c r="H41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="24"/>
@@ -3579,11 +3615,11 @@
       <c r="O41" s="9"/>
     </row>
     <row r="42" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B42" s="85"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="64">
         <f>data!N3</f>
         <v>0</v>
       </c>
@@ -3595,16 +3631,16 @@
         <v>11</v>
       </c>
       <c r="G42" s="24"/>
-      <c r="H42" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="87" t="s">
+      <c r="H42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="31"/>
@@ -3619,11 +3655,11 @@
       <c r="O42" s="30"/>
     </row>
     <row r="43" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B43" s="85"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="64">
         <f>data!N4</f>
         <v>0</v>
       </c>
@@ -3635,16 +3671,16 @@
         <v>11</v>
       </c>
       <c r="G43" s="24"/>
-      <c r="H43" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="87" t="s">
+      <c r="H43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="31"/>
@@ -3659,11 +3695,11 @@
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B44" s="85"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="64">
         <f>data!N5</f>
         <v>0</v>
       </c>
@@ -3675,16 +3711,16 @@
         <v>11</v>
       </c>
       <c r="G44" s="24"/>
-      <c r="H44" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="87" t="s">
+      <c r="H44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="31"/>
@@ -3699,11 +3735,11 @@
       <c r="O44" s="30"/>
     </row>
     <row r="45" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B45" s="85"/>
+      <c r="B45" s="77"/>
       <c r="C45" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="72">
+      <c r="D45" s="64">
         <f>data!N6</f>
         <v>0</v>
       </c>
@@ -3715,16 +3751,16 @@
         <v>11</v>
       </c>
       <c r="G45" s="30"/>
-      <c r="H45" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="87" t="s">
+      <c r="H45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="31"/>
@@ -3739,11 +3775,11 @@
       <c r="O45" s="30"/>
     </row>
     <row r="46" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B46" s="85"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="64">
         <f>data!N7</f>
         <v>0</v>
       </c>
@@ -3755,16 +3791,16 @@
         <v>11</v>
       </c>
       <c r="G46" s="30"/>
-      <c r="H46" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="87" t="s">
+      <c r="H46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="31"/>
@@ -3779,11 +3815,11 @@
       <c r="O46" s="30"/>
     </row>
     <row r="47" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B47" s="85"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="72">
+      <c r="D47" s="64">
         <f>data!N8</f>
         <v>0</v>
       </c>
@@ -3795,16 +3831,16 @@
         <v>11</v>
       </c>
       <c r="G47" s="30"/>
-      <c r="H47" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="87" t="s">
+      <c r="H47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="31"/>
@@ -3819,11 +3855,11 @@
       <c r="O47" s="30"/>
     </row>
     <row r="48" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B48" s="85"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="72">
+      <c r="D48" s="64">
         <f>data!N9</f>
         <v>0</v>
       </c>
@@ -3835,16 +3871,16 @@
         <v>11</v>
       </c>
       <c r="G48" s="19"/>
-      <c r="H48" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="87" t="s">
+      <c r="H48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="19"/>
@@ -3859,11 +3895,11 @@
       <c r="O48" s="30"/>
     </row>
     <row r="49" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B49" s="85"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="72">
+      <c r="D49" s="64">
         <f>data!N10</f>
         <v>0</v>
       </c>
@@ -3875,16 +3911,16 @@
         <v>11</v>
       </c>
       <c r="G49" s="24"/>
-      <c r="H49" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="87" t="s">
+      <c r="H49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="31"/>
@@ -3899,11 +3935,11 @@
       <c r="O49" s="30"/>
     </row>
     <row r="50" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B50" s="85"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="72">
+      <c r="D50" s="64">
         <f>data!N11</f>
         <v>0</v>
       </c>
@@ -3915,16 +3951,16 @@
         <v>11</v>
       </c>
       <c r="G50" s="24"/>
-      <c r="H50" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="87" t="s">
+      <c r="H50" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="31"/>
@@ -3939,11 +3975,11 @@
       <c r="O50" s="30"/>
     </row>
     <row r="51" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B51" s="85"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="72">
+      <c r="D51" s="64">
         <f>data!N12</f>
         <v>0</v>
       </c>
@@ -3955,16 +3991,16 @@
         <v>11</v>
       </c>
       <c r="G51" s="24"/>
-      <c r="H51" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="87" t="s">
+      <c r="H51" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="31"/>
@@ -3979,11 +4015,11 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B52" s="85"/>
+      <c r="B52" s="77"/>
       <c r="C52" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="64">
         <f>data!N13</f>
         <v>0</v>
       </c>
@@ -3995,16 +4031,16 @@
         <v>11</v>
       </c>
       <c r="G52" s="24"/>
-      <c r="H52" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="87" t="s">
+      <c r="H52" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="68" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="31"/>
@@ -4019,7 +4055,7 @@
       <c r="O52" s="30"/>
     </row>
     <row r="53" spans="2:15" s="29" customFormat="1" ht="15.75">
-      <c r="B53" s="86"/>
+      <c r="B53" s="78"/>
       <c r="C53" s="35" t="s">
         <v>24</v>
       </c>
@@ -4035,7 +4071,7 @@
         <f>SUM(F41:F52)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="53"/>
+      <c r="G53" s="46"/>
       <c r="H53" s="36">
         <f>SUM(H41:H52)</f>
         <v>0</v>
@@ -4052,7 +4088,7 @@
         <f>J53/H53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="54"/>
+      <c r="L53" s="47"/>
       <c r="M53" s="36">
         <f>M41+M42+M43+M44+M45+M46+M47+M48+M49+M50+M51+M52</f>
         <v>0</v>
@@ -4070,12 +4106,12 @@
       <c r="E54" s="30"/>
       <c r="F54" s="9"/>
       <c r="G54" s="30"/>
-      <c r="H54" s="83" t="s">
+      <c r="H54" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
@@ -4087,60 +4123,60 @@
       </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="57"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="60"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="53"/>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="61"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="63"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="56"/>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="63"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="56"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="69"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4156,6 +4192,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4169,98 +4206,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="17" width="7.125" style="74" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="74"/>
+    <col min="1" max="17" width="7.125" style="66" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="66" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25">
-      <c r="I2" s="75"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="14.25">
-      <c r="I3" s="75"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="14.25">
-      <c r="I4" s="75"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="14.25">
-      <c r="I5" s="75"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:17" ht="14.25">
-      <c r="I6" s="75"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:17" ht="14.25">
-      <c r="I7" s="75"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:17" ht="14.25">
-      <c r="I8" s="75"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:17" ht="14.25">
-      <c r="I9" s="75"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:17" ht="14.25">
-      <c r="I10" s="75"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:17" ht="14.25">
-      <c r="I11" s="75"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:17" ht="14.25">
-      <c r="I12" s="75"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:17" ht="14.25">
-      <c r="I13" s="75"/>
+      <c r="I13" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
